--- a/Исследование влияния.xlsx
+++ b/Исследование влияния.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
   <si>
     <t>Простые текст</t>
   </si>
@@ -153,7 +153,37 @@
     <t>Skip gram - размер вектора, размер окна</t>
   </si>
   <si>
-    <t>размер словаря 1000, размер вектора 100, окно 3</t>
+    <t>О точность</t>
+  </si>
+  <si>
+    <t>О чувств</t>
+  </si>
+  <si>
+    <t>О спец</t>
+  </si>
+  <si>
+    <t>В точн</t>
+  </si>
+  <si>
+    <t>В чувств</t>
+  </si>
+  <si>
+    <t>В спец</t>
+  </si>
+  <si>
+    <t>Т точн</t>
+  </si>
+  <si>
+    <t>Т чувств</t>
+  </si>
+  <si>
+    <t>Т спец</t>
+  </si>
+  <si>
+    <t>размер словаря 1000 размер вектора 100, окно 3</t>
+  </si>
+  <si>
+    <t>Размер словаря 1000, размер вектора 100, окно 3, длина последовательности 500</t>
   </si>
 </sst>
 </file>
@@ -717,23 +747,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
       <c r="F1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -741,40 +798,70 @@
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="P2">
+        <v>88.01</v>
+      </c>
+      <c r="Q2">
+        <v>85.02</v>
+      </c>
+      <c r="R2">
+        <v>97.46</v>
+      </c>
+      <c r="S2">
+        <v>90.22</v>
+      </c>
+      <c r="T2">
+        <v>88.85</v>
+      </c>
+      <c r="U2">
+        <v>98.17</v>
+      </c>
+      <c r="V2">
+        <v>63.11</v>
+      </c>
+      <c r="W2">
+        <v>60.34</v>
+      </c>
+      <c r="X2">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -782,17 +869,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -800,12 +887,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
